--- a/output/1Y_P78_KFSDIV.xlsx
+++ b/output/1Y_P78_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>11.2352</v>
       </c>
       <c r="C2" s="1">
-        <v>11.2352</v>
+        <v>11.2127</v>
       </c>
       <c r="D2" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>890.0519</v>
+        <v>888.2809</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>10.8241</v>
       </c>
       <c r="C3" s="1">
-        <v>10.8241</v>
+        <v>10.8024</v>
       </c>
       <c r="D3" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="E3" s="1">
-        <v>890.0519</v>
+        <v>888.2809</v>
       </c>
       <c r="F3" s="1">
-        <v>923.8643</v>
+        <v>922.0159</v>
       </c>
       <c r="H3" s="1">
-        <v>9634.010700000001</v>
+        <v>9595.565699999999</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9634.010700000001</v>
+        <v>9595.565699999999</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0366</v>
+        <v>-0.0404</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>11.2543</v>
       </c>
       <c r="C4" s="1">
-        <v>11.2543</v>
+        <v>11.2318</v>
       </c>
       <c r="D4" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="E4" s="1">
-        <v>1813.9162</v>
+        <v>1810.2968</v>
       </c>
       <c r="F4" s="1">
-        <v>888.5493</v>
+        <v>886.7685</v>
       </c>
       <c r="H4" s="1">
-        <v>20414.3574</v>
+        <v>20332.8917</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20414.3574</v>
+        <v>20332.8917</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>11.0259</v>
+        <v>11.0479</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0397</v>
+        <v>0.0376</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,46 +871,46 @@
         <v>10.5675</v>
       </c>
       <c r="C5" s="1">
-        <v>10.5675</v>
+        <v>10.5464</v>
       </c>
       <c r="D5" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="E5" s="1">
-        <v>2702.4655</v>
+        <v>2697.0653</v>
       </c>
       <c r="F5" s="1">
-        <v>946.2886999999999</v>
+        <v>944.403</v>
       </c>
       <c r="H5" s="1">
-        <v>28558.3041</v>
+        <v>28444.3298</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>28558.3041</v>
+        <v>28444.3298</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>11.101</v>
+        <v>11.1232</v>
       </c>
       <c r="M5" s="1">
         <v>0.3</v>
       </c>
       <c r="N5" s="1">
-        <v>489.7574</v>
+        <v>488.7801</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9510.2426</v>
+        <v>-9511.2199</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.061</v>
+        <v>-0.0623</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>9.967000000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>9.967000000000001</v>
+        <v>9.947100000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="E6" s="1">
-        <v>3648.7542</v>
+        <v>3641.4683</v>
       </c>
       <c r="F6" s="1">
-        <v>1009.4532</v>
+        <v>1007.4194</v>
       </c>
       <c r="H6" s="1">
-        <v>36367.1326</v>
+        <v>36222.0496</v>
       </c>
       <c r="I6" s="1">
-        <v>489.7574</v>
+        <v>488.7801</v>
       </c>
       <c r="J6" s="1">
-        <v>36856.89</v>
+        <v>36710.8297</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.9626</v>
+        <v>10.9846</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10061.2197</v>
+        <v>-10061.0975</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0441</v>
+        <v>-0.0451</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>10.0064</v>
       </c>
       <c r="C7" s="1">
-        <v>10.0064</v>
+        <v>9.9864</v>
       </c>
       <c r="D7" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="E7" s="1">
-        <v>4658.2073</v>
+        <v>4648.8877</v>
       </c>
       <c r="F7" s="1">
-        <v>1005.4785</v>
+        <v>1003.4506</v>
       </c>
       <c r="H7" s="1">
-        <v>46611.8857</v>
+        <v>46425.6524</v>
       </c>
       <c r="I7" s="1">
-        <v>428.5377</v>
+        <v>427.6826</v>
       </c>
       <c r="J7" s="1">
-        <v>47040.4234</v>
+        <v>46853.335</v>
       </c>
       <c r="K7" s="1">
-        <v>50061.2197</v>
+        <v>50061.0975</v>
       </c>
       <c r="L7" s="1">
-        <v>10.7469</v>
+        <v>10.7684</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10061.2197</v>
+        <v>-10061.0975</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0039</v>
+        <v>0.0031</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,46 +1021,46 @@
         <v>10.0129</v>
       </c>
       <c r="C8" s="1">
-        <v>10.0129</v>
+        <v>9.992900000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="E8" s="1">
-        <v>5663.6858</v>
+        <v>5652.3383</v>
       </c>
       <c r="F8" s="1">
-        <v>1004.8257</v>
+        <v>1002.8005</v>
       </c>
       <c r="H8" s="1">
-        <v>56709.9193</v>
+        <v>56483.2517</v>
       </c>
       <c r="I8" s="1">
-        <v>367.318</v>
+        <v>366.5851</v>
       </c>
       <c r="J8" s="1">
-        <v>57077.2373</v>
+        <v>56849.8368</v>
       </c>
       <c r="K8" s="1">
-        <v>60122.4393</v>
+        <v>60122.195</v>
       </c>
       <c r="L8" s="1">
-        <v>10.6154</v>
+        <v>10.6367</v>
       </c>
       <c r="M8" s="1">
         <v>0.3</v>
       </c>
       <c r="N8" s="1">
-        <v>1257.716</v>
+        <v>1255.1997</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8803.503699999999</v>
+        <v>-8805.897800000001</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0005999999999999999</v>
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>10.4583</v>
       </c>
       <c r="C9" s="1">
-        <v>10.4583</v>
+        <v>10.4374</v>
       </c>
       <c r="D9" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="E9" s="1">
-        <v>6668.5115</v>
+        <v>6655.1388</v>
       </c>
       <c r="F9" s="1">
-        <v>986.0841</v>
+        <v>984.0483</v>
       </c>
       <c r="H9" s="1">
-        <v>69741.29399999999</v>
+        <v>69462.3462</v>
       </c>
       <c r="I9" s="1">
-        <v>1563.8143</v>
+        <v>1560.6873</v>
       </c>
       <c r="J9" s="1">
-        <v>71305.10830000001</v>
+        <v>71023.0334</v>
       </c>
       <c r="K9" s="1">
-        <v>70183.659</v>
+        <v>70183.2926</v>
       </c>
       <c r="L9" s="1">
-        <v>10.5246</v>
+        <v>10.5457</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10312.7629</v>
+        <v>-10312.1375</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.063</v>
+        <v>0.0624</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>10.3341</v>
       </c>
       <c r="C10" s="1">
-        <v>10.3341</v>
+        <v>10.3134</v>
       </c>
       <c r="D10" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="E10" s="1">
-        <v>7654.5956</v>
+        <v>7639.1872</v>
       </c>
       <c r="F10" s="1">
-        <v>997.9353</v>
+        <v>995.8799</v>
       </c>
       <c r="H10" s="1">
-        <v>79103.3561</v>
+        <v>78785.99280000001</v>
       </c>
       <c r="I10" s="1">
-        <v>1251.0515</v>
+        <v>1248.5498</v>
       </c>
       <c r="J10" s="1">
-        <v>80354.40760000001</v>
+        <v>80034.5426</v>
       </c>
       <c r="K10" s="1">
-        <v>80496.4219</v>
+        <v>80495.42999999999</v>
       </c>
       <c r="L10" s="1">
-        <v>10.5161</v>
+        <v>10.5372</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10312.7629</v>
+        <v>-10312.1375</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0117</v>
+        <v>-0.0122</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,46 +1171,46 @@
         <v>9.884600000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>9.884600000000001</v>
+        <v>9.864800000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>8652.5308</v>
+        <v>8635.0671</v>
       </c>
       <c r="F11" s="1">
-        <v>1043.3162</v>
+        <v>1041.1673</v>
       </c>
       <c r="H11" s="1">
-        <v>85526.8064</v>
+        <v>85183.20970000001</v>
       </c>
       <c r="I11" s="1">
-        <v>938.2886</v>
+        <v>936.4124</v>
       </c>
       <c r="J11" s="1">
-        <v>86465.095</v>
+        <v>86119.62209999999</v>
       </c>
       <c r="K11" s="1">
-        <v>90809.1848</v>
+        <v>90807.5675</v>
       </c>
       <c r="L11" s="1">
-        <v>10.4951</v>
+        <v>10.5161</v>
       </c>
       <c r="M11" s="1">
         <v>0.5</v>
       </c>
       <c r="N11" s="1">
-        <v>3444.568</v>
+        <v>3437.6342</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-6868.1949</v>
+        <v>-6874.5032</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.043</v>
+        <v>-0.0435</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>9.967499999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>9.967499999999999</v>
+        <v>9.9476</v>
       </c>
       <c r="D12" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>9695.847</v>
+        <v>9676.234399999999</v>
       </c>
       <c r="F12" s="1">
-        <v>1207.4288</v>
+        <v>1204.6012</v>
       </c>
       <c r="H12" s="1">
-        <v>96643.35490000001</v>
+        <v>96255.3091</v>
       </c>
       <c r="I12" s="1">
-        <v>4070.0937</v>
+        <v>4061.9091</v>
       </c>
       <c r="J12" s="1">
-        <v>100713.4487</v>
+        <v>100317.2183</v>
       </c>
       <c r="K12" s="1">
-        <v>101121.9476</v>
+        <v>101119.7049</v>
       </c>
       <c r="L12" s="1">
-        <v>10.4294</v>
+        <v>10.4503</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-12035.0469</v>
+        <v>-12030.9546</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.044</v>
+        <v>0.0437</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>10.4908</v>
       </c>
       <c r="C13" s="1">
-        <v>10.4908</v>
+        <v>10.4698</v>
       </c>
       <c r="D13" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="E13" s="1">
-        <v>10903.2758</v>
+        <v>10880.8356</v>
       </c>
       <c r="F13" s="1">
-        <v>1147.2001</v>
+        <v>1144.519</v>
       </c>
       <c r="H13" s="1">
-        <v>114384.086</v>
+        <v>113920.1725</v>
       </c>
       <c r="I13" s="1">
-        <v>2035.0469</v>
+        <v>2030.9546</v>
       </c>
       <c r="J13" s="1">
-        <v>116419.1329</v>
+        <v>115951.127</v>
       </c>
       <c r="K13" s="1">
-        <v>113156.9945</v>
+        <v>113150.6595</v>
       </c>
       <c r="L13" s="1">
-        <v>10.3783</v>
+        <v>10.3991</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-12035.0469</v>
+        <v>-12030.9546</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0515</v>
+        <v>0.0511</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>10.6308</v>
       </c>
       <c r="C14" s="1">
-        <v>10.6308</v>
+        <v>10.6095</v>
       </c>
       <c r="D14" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="E14" s="1">
-        <v>12050.4759</v>
+        <v>12025.3546</v>
       </c>
       <c r="F14" s="1">
-        <v>-12050.4759</v>
+        <v>-12025.3546</v>
       </c>
       <c r="H14" s="1">
-        <v>128106.1995</v>
+        <v>127582.9993</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>128106.1995</v>
+        <v>127582.9993</v>
       </c>
       <c r="K14" s="1">
-        <v>125192.0414</v>
+        <v>125181.614</v>
       </c>
       <c r="L14" s="1">
-        <v>10.389</v>
+        <v>10.4098</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>128106.1995</v>
+        <v>127582.9993</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0133</v>
+        <v>0.013</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>11.2352</v>
       </c>
       <c r="C2" s="1">
-        <v>11.2352</v>
+        <v>11.2127</v>
       </c>
       <c r="D2" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>890.0519</v>
+        <v>888.2809</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>10.8241</v>
       </c>
       <c r="C3" s="1">
-        <v>10.8241</v>
+        <v>10.8024</v>
       </c>
       <c r="D3" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="E3" s="1">
-        <v>890.0519</v>
+        <v>888.2809</v>
       </c>
       <c r="F3" s="1">
-        <v>923.8643</v>
+        <v>922.0159</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>9634.010700000001</v>
+        <v>9595.565699999999</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9634.010700000001</v>
+        <v>9595.565699999999</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0366</v>
+        <v>-0.0404</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>11.2543</v>
       </c>
       <c r="C4" s="1">
-        <v>11.2543</v>
+        <v>11.2318</v>
       </c>
       <c r="D4" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="E4" s="1">
-        <v>1813.9162</v>
+        <v>1810.2968</v>
       </c>
       <c r="F4" s="1">
-        <v>851.7316</v>
+        <v>860.6909000000001</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>20414.3574</v>
+        <v>20332.8917</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20414.3574</v>
+        <v>20332.8917</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>11.0259</v>
+        <v>11.0479</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9585.642599999999</v>
+        <v>-9705.925499999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0397</v>
+        <v>0.0376</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,49 +1609,49 @@
         <v>10.5675</v>
       </c>
       <c r="C5" s="1">
-        <v>10.5675</v>
+        <v>10.5464</v>
       </c>
       <c r="D5" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="E5" s="1">
-        <v>2665.6478</v>
+        <v>2670.9877</v>
       </c>
       <c r="F5" s="1">
-        <v>985.4988</v>
+        <v>972.1755000000001</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>28169.2331</v>
+        <v>28169.305</v>
       </c>
       <c r="I5" s="1">
-        <v>414.3574</v>
+        <v>294.0745</v>
       </c>
       <c r="J5" s="1">
-        <v>28583.5905</v>
+        <v>28463.3795</v>
       </c>
       <c r="K5" s="1">
-        <v>29585.6426</v>
+        <v>29705.9255</v>
       </c>
       <c r="L5" s="1">
-        <v>11.0989</v>
+        <v>11.1217</v>
       </c>
       <c r="M5" s="1">
         <v>0.3</v>
       </c>
       <c r="N5" s="1">
-        <v>489.7574</v>
+        <v>488.7801</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9924.6</v>
+        <v>-9805.294400000001</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0602</v>
+        <v>-0.0616</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>9.967000000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>9.967000000000001</v>
+        <v>9.947100000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="E6" s="1">
-        <v>3651.1466</v>
+        <v>3643.1632</v>
       </c>
       <c r="F6" s="1">
-        <v>1052.4488</v>
+        <v>1050.2433</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>36390.9784</v>
+        <v>36238.9088</v>
       </c>
       <c r="I6" s="1">
-        <v>489.7574</v>
+        <v>488.7801</v>
       </c>
       <c r="J6" s="1">
-        <v>36880.7358</v>
+        <v>36727.6889</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.9555</v>
+        <v>10.9795</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10489.7574</v>
+        <v>-10488.7801</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0441</v>
+        <v>-0.0451</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>10.0064</v>
       </c>
       <c r="C7" s="1">
-        <v>10.0064</v>
+        <v>9.9864</v>
       </c>
       <c r="D7" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="E7" s="1">
-        <v>4703.5954</v>
+        <v>4693.4065</v>
       </c>
       <c r="F7" s="1">
-        <v>999.3604</v>
+        <v>997.357</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>47066.0575</v>
+        <v>46870.2351</v>
       </c>
       <c r="I7" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J7" s="1">
-        <v>47066.0575</v>
+        <v>46870.2351</v>
       </c>
       <c r="K7" s="1">
-        <v>50489.7574</v>
+        <v>50488.7801</v>
       </c>
       <c r="L7" s="1">
-        <v>10.7343</v>
+        <v>10.7574</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1757,7 +1757,7 @@
         <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.004</v>
+        <v>0.0031</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,49 +1768,49 @@
         <v>10.0129</v>
       </c>
       <c r="C8" s="1">
-        <v>10.0129</v>
+        <v>9.992900000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="E8" s="1">
-        <v>5702.9559</v>
+        <v>5690.7635</v>
       </c>
       <c r="F8" s="1">
-        <v>998.7117</v>
+        <v>996.7109</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>57103.1267</v>
+        <v>56867.231</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>57103.1267</v>
+        <v>56867.231</v>
       </c>
       <c r="K8" s="1">
-        <v>60489.7574</v>
+        <v>60488.7801</v>
       </c>
       <c r="L8" s="1">
-        <v>10.6067</v>
+        <v>10.6293</v>
       </c>
       <c r="M8" s="1">
         <v>0.3</v>
       </c>
       <c r="N8" s="1">
-        <v>1269.9708</v>
+        <v>1267.2198</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8730.029200000001</v>
+        <v>-8732.780199999999</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0005999999999999999</v>
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>10.4583</v>
       </c>
       <c r="C9" s="1">
-        <v>10.4583</v>
+        <v>10.4374</v>
       </c>
       <c r="D9" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="E9" s="1">
-        <v>6701.6675</v>
+        <v>6687.4744</v>
       </c>
       <c r="F9" s="1">
-        <v>947.7593000000001</v>
+        <v>977.2696999999999</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>70088.0494</v>
+        <v>69799.8453</v>
       </c>
       <c r="I9" s="1">
-        <v>1269.9708</v>
+        <v>1267.2198</v>
       </c>
       <c r="J9" s="1">
-        <v>71358.0202</v>
+        <v>71067.06510000001</v>
       </c>
       <c r="K9" s="1">
-        <v>70489.7574</v>
+        <v>70488.7801</v>
       </c>
       <c r="L9" s="1">
-        <v>10.5182</v>
+        <v>10.5404</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-9911.9506</v>
+        <v>-10241.1023</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0634</v>
+        <v>0.06279999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>10.3341</v>
       </c>
       <c r="C10" s="1">
-        <v>10.3341</v>
+        <v>10.3134</v>
       </c>
       <c r="D10" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="E10" s="1">
-        <v>7649.4268</v>
+        <v>7664.7441</v>
       </c>
       <c r="F10" s="1">
-        <v>1059.6045</v>
+        <v>1061.767</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>79049.9412</v>
+        <v>79049.5717</v>
       </c>
       <c r="I10" s="1">
-        <v>1358.0202</v>
+        <v>1026.1175</v>
       </c>
       <c r="J10" s="1">
-        <v>80407.9614</v>
+        <v>80075.68919999999</v>
       </c>
       <c r="K10" s="1">
-        <v>80401.708</v>
+        <v>80729.8824</v>
       </c>
       <c r="L10" s="1">
-        <v>10.5108</v>
+        <v>10.5326</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10950.0588</v>
+        <v>-10994.3854</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0117</v>
+        <v>-0.0122</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,49 +1927,49 @@
         <v>9.884600000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>9.884600000000001</v>
+        <v>9.864800000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>8709.031300000001</v>
+        <v>8726.5111</v>
       </c>
       <c r="F11" s="1">
-        <v>1052.9471</v>
+        <v>1012.8561</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>86085.2904</v>
+        <v>86085.2871</v>
       </c>
       <c r="I11" s="1">
-        <v>407.9614</v>
+        <v>31.732</v>
       </c>
       <c r="J11" s="1">
-        <v>86493.2518</v>
+        <v>86117.0191</v>
       </c>
       <c r="K11" s="1">
-        <v>91351.7668</v>
+        <v>91724.26790000001</v>
       </c>
       <c r="L11" s="1">
-        <v>10.4893</v>
+        <v>10.511</v>
       </c>
       <c r="M11" s="1">
         <v>0.5</v>
       </c>
       <c r="N11" s="1">
-        <v>3442.242</v>
+        <v>3449.1348</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-6965.7193</v>
+        <v>-6582.5972</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0433</v>
+        <v>-0.0439</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>9.967499999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>9.967499999999999</v>
+        <v>9.9476</v>
       </c>
       <c r="D12" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>9761.9784</v>
+        <v>9739.367200000001</v>
       </c>
       <c r="F12" s="1">
-        <v>1273.8882</v>
+        <v>1318.5764</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>97302.51979999999</v>
+        <v>96883.3296</v>
       </c>
       <c r="I12" s="1">
-        <v>3442.242</v>
+        <v>3449.1348</v>
       </c>
       <c r="J12" s="1">
-        <v>100744.7619</v>
+        <v>100332.4645</v>
       </c>
       <c r="K12" s="1">
-        <v>101759.7282</v>
+        <v>101755.9999</v>
       </c>
       <c r="L12" s="1">
-        <v>10.4241</v>
+        <v>10.4479</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-12697.4802</v>
+        <v>-13169.2816</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0441</v>
+        <v>0.0439</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>10.4908</v>
       </c>
       <c r="C13" s="1">
-        <v>10.4908</v>
+        <v>10.4698</v>
       </c>
       <c r="D13" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="E13" s="1">
-        <v>11035.8666</v>
+        <v>11057.9436</v>
       </c>
       <c r="F13" s="1">
-        <v>402.7272</v>
+        <v>403.5934</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>115775.069</v>
+        <v>115774.4582</v>
       </c>
       <c r="I13" s="1">
-        <v>744.7619</v>
+        <v>279.8533</v>
       </c>
       <c r="J13" s="1">
-        <v>116519.8308</v>
+        <v>116054.3114</v>
       </c>
       <c r="K13" s="1">
-        <v>114457.2083</v>
+        <v>114925.2815</v>
       </c>
       <c r="L13" s="1">
-        <v>10.3714</v>
+        <v>10.393</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2072,10 +2072,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-4224.931</v>
+        <v>-4242.4928</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0521</v>
+        <v>0.0519</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>10.6308</v>
       </c>
       <c r="C14" s="1">
-        <v>10.6308</v>
+        <v>10.6095</v>
       </c>
       <c r="D14" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="E14" s="1">
-        <v>11438.5938</v>
+        <v>11461.537</v>
       </c>
       <c r="F14" s="1">
-        <v>-11438.5938</v>
+        <v>-11461.537</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>121601.4031</v>
+        <v>121601.1767</v>
       </c>
       <c r="I14" s="1">
-        <v>6519.8308</v>
+        <v>6037.3605</v>
       </c>
       <c r="J14" s="1">
-        <v>128121.234</v>
+        <v>127638.5372</v>
       </c>
       <c r="K14" s="1">
-        <v>118682.1394</v>
+        <v>119167.7742</v>
       </c>
       <c r="L14" s="1">
-        <v>10.3756</v>
+        <v>10.3972</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>121601.4031</v>
+        <v>121601.1767</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0127</v>
+        <v>0.0126</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>11.2352</v>
       </c>
       <c r="C2" s="1">
-        <v>11.2352</v>
+        <v>11.2127</v>
       </c>
       <c r="D2" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>890.0519</v>
+        <v>888.2809</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>10.8241</v>
       </c>
       <c r="C3" s="1">
-        <v>10.8241</v>
+        <v>10.8024</v>
       </c>
       <c r="D3" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="E3" s="1">
-        <v>890.0519</v>
+        <v>888.2809</v>
       </c>
       <c r="F3" s="1">
-        <v>923.8643</v>
+        <v>922.0159</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>9634.010700000001</v>
+        <v>9595.565699999999</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9634.010700000001</v>
+        <v>9595.565699999999</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2313,7 +2313,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0366</v>
+        <v>-0.0404</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>11.2543</v>
       </c>
       <c r="C4" s="1">
-        <v>11.2543</v>
+        <v>11.2318</v>
       </c>
       <c r="D4" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="E4" s="1">
-        <v>1813.9162</v>
+        <v>1810.2968</v>
       </c>
       <c r="F4" s="1">
-        <v>865.082</v>
+        <v>874.0681</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20414.3574</v>
+        <v>20332.8917</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20414.3574</v>
+        <v>20332.8917</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>11.0259</v>
+        <v>11.0479</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2363,10 +2363,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9735.892599999999</v>
+        <v>-9856.7788</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0397</v>
+        <v>0.0376</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,49 +2377,49 @@
         <v>10.5675</v>
       </c>
       <c r="C5" s="1">
-        <v>10.5675</v>
+        <v>10.5464</v>
       </c>
       <c r="D5" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="E5" s="1">
-        <v>2678.9982</v>
+        <v>2684.3649</v>
       </c>
       <c r="F5" s="1">
-        <v>971.2808</v>
+        <v>957.9288</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>28310.314</v>
+        <v>28310.3863</v>
       </c>
       <c r="I5" s="1">
-        <v>264.1074</v>
+        <v>143.2212</v>
       </c>
       <c r="J5" s="1">
-        <v>28574.4214</v>
+        <v>28453.6075</v>
       </c>
       <c r="K5" s="1">
-        <v>29735.8926</v>
+        <v>29856.7788</v>
       </c>
       <c r="L5" s="1">
-        <v>11.0996</v>
+        <v>11.1225</v>
       </c>
       <c r="M5" s="1">
         <v>0.3</v>
       </c>
       <c r="N5" s="1">
-        <v>489.7574</v>
+        <v>488.7801</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9774.35</v>
+        <v>-9654.4411</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0605</v>
+        <v>-0.062</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>9.967000000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>9.967000000000001</v>
+        <v>9.947100000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="E6" s="1">
-        <v>3650.2791</v>
+        <v>3642.2938</v>
       </c>
       <c r="F6" s="1">
-        <v>1052.4488</v>
+        <v>1050.2433</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>36382.3317</v>
+        <v>36230.2604</v>
       </c>
       <c r="I6" s="1">
-        <v>489.7574</v>
+        <v>488.7801</v>
       </c>
       <c r="J6" s="1">
-        <v>36872.0891</v>
+        <v>36719.0406</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.9581</v>
+        <v>10.9821</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10489.7574</v>
+        <v>-10488.7801</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0441</v>
+        <v>-0.0451</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>10.0064</v>
       </c>
       <c r="C7" s="1">
-        <v>10.0064</v>
+        <v>9.9864</v>
       </c>
       <c r="D7" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="E7" s="1">
-        <v>4702.7279</v>
+        <v>4692.5371</v>
       </c>
       <c r="F7" s="1">
-        <v>999.3604</v>
+        <v>997.357</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>47057.3766</v>
+        <v>46861.5526</v>
       </c>
       <c r="I7" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J7" s="1">
-        <v>47057.3766</v>
+        <v>46861.5526</v>
       </c>
       <c r="K7" s="1">
-        <v>50489.7574</v>
+        <v>50488.7801</v>
       </c>
       <c r="L7" s="1">
-        <v>10.7363</v>
+        <v>10.7594</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2525,7 +2525,7 @@
         <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.004</v>
+        <v>0.0031</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,49 +2536,49 @@
         <v>10.0129</v>
       </c>
       <c r="C8" s="1">
-        <v>10.0129</v>
+        <v>9.992900000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="E8" s="1">
-        <v>5702.0883</v>
+        <v>5689.8941</v>
       </c>
       <c r="F8" s="1">
-        <v>998.7117</v>
+        <v>996.7109</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>57094.4401</v>
+        <v>56858.5428</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>57094.4401</v>
+        <v>56858.5428</v>
       </c>
       <c r="K8" s="1">
-        <v>60489.7574</v>
+        <v>60488.7801</v>
       </c>
       <c r="L8" s="1">
-        <v>10.6084</v>
+        <v>10.6309</v>
       </c>
       <c r="M8" s="1">
         <v>0.3</v>
       </c>
       <c r="N8" s="1">
-        <v>1269.7365</v>
+        <v>1266.985</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8730.263499999999</v>
+        <v>-8733.014999999999</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0005999999999999999</v>
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>10.4583</v>
       </c>
       <c r="C9" s="1">
-        <v>10.4583</v>
+        <v>10.4374</v>
       </c>
       <c r="D9" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="E9" s="1">
-        <v>6700.8</v>
+        <v>6686.605</v>
       </c>
       <c r="F9" s="1">
-        <v>1077.5878</v>
+        <v>1075.1658</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>70078.9765</v>
+        <v>69790.7706</v>
       </c>
       <c r="I9" s="1">
-        <v>1269.7365</v>
+        <v>1266.985</v>
       </c>
       <c r="J9" s="1">
-        <v>71348.713</v>
+        <v>71057.75569999999</v>
       </c>
       <c r="K9" s="1">
-        <v>70489.7574</v>
+        <v>70488.7801</v>
       </c>
       <c r="L9" s="1">
-        <v>10.5196</v>
+        <v>10.5418</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11269.7365</v>
+        <v>-11266.985</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0634</v>
+        <v>0.06279999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>10.3341</v>
       </c>
       <c r="C10" s="1">
-        <v>10.3341</v>
+        <v>10.3134</v>
       </c>
       <c r="D10" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="E10" s="1">
-        <v>7778.3878</v>
+        <v>7761.7708</v>
       </c>
       <c r="F10" s="1">
-        <v>967.6701</v>
+        <v>965.7357</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>80382.6372</v>
+        <v>80050.2466</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>80382.6372</v>
+        <v>80050.2466</v>
       </c>
       <c r="K10" s="1">
-        <v>81759.4939</v>
+        <v>81755.76519999999</v>
       </c>
       <c r="L10" s="1">
-        <v>10.5111</v>
+        <v>10.5331</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0119</v>
+        <v>-0.0124</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,49 +2695,49 @@
         <v>9.884600000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>9.884600000000001</v>
+        <v>9.864800000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>8746.0579</v>
+        <v>8727.5065</v>
       </c>
       <c r="F11" s="1">
-        <v>1011.6747</v>
+        <v>1009.6523</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>86451.28419999999</v>
+        <v>86095.1058</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>86451.28419999999</v>
+        <v>86095.1058</v>
       </c>
       <c r="K11" s="1">
-        <v>91759.4939</v>
+        <v>91755.76519999999</v>
       </c>
       <c r="L11" s="1">
-        <v>10.4915</v>
+        <v>10.5134</v>
       </c>
       <c r="M11" s="1">
         <v>0.5</v>
       </c>
       <c r="N11" s="1">
-        <v>3500.2745</v>
+        <v>3492.7968</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-6499.7255</v>
+        <v>-6507.2032</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0435</v>
+        <v>-0.0439</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>9.967499999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>9.967499999999999</v>
+        <v>9.9476</v>
       </c>
       <c r="D12" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>9757.7327</v>
+        <v>9737.1587</v>
       </c>
       <c r="F12" s="1">
-        <v>1354.4293</v>
+        <v>1350.9684</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>97260.20020000001</v>
+        <v>96861.3603</v>
       </c>
       <c r="I12" s="1">
-        <v>3500.2745</v>
+        <v>3492.7968</v>
       </c>
       <c r="J12" s="1">
-        <v>100760.4747</v>
+        <v>100354.1571</v>
       </c>
       <c r="K12" s="1">
-        <v>101759.4939</v>
+        <v>101755.7652</v>
       </c>
       <c r="L12" s="1">
-        <v>10.4286</v>
+        <v>10.4503</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2787,10 +2787,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-13500.2745</v>
+        <v>-13492.7968</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0447</v>
+        <v>0.0443</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>10.4908</v>
       </c>
       <c r="C13" s="1">
-        <v>10.4908</v>
+        <v>10.4698</v>
       </c>
       <c r="D13" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="E13" s="1">
-        <v>11112.162</v>
+        <v>11088.1271</v>
       </c>
       <c r="F13" s="1">
-        <v>646.2953</v>
+        <v>693.9149</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>116575.4691</v>
+        <v>116090.4735</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>116575.4691</v>
+        <v>116090.4735</v>
       </c>
       <c r="K13" s="1">
-        <v>115259.7684</v>
+        <v>115248.562</v>
       </c>
       <c r="L13" s="1">
-        <v>10.3724</v>
+        <v>10.3939</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-6780.1546</v>
+        <v>-7294.2947</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0525</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +2854,34 @@
         <v>10.6308</v>
       </c>
       <c r="C14" s="1">
-        <v>10.6308</v>
+        <v>10.6095</v>
       </c>
       <c r="D14" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="E14" s="1">
-        <v>11758.4573</v>
+        <v>11782.042</v>
       </c>
       <c r="F14" s="1">
-        <v>-11758.4573</v>
+        <v>-11782.042</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>125001.8077</v>
+        <v>125001.575</v>
       </c>
       <c r="I14" s="1">
-        <v>3219.8454</v>
+        <v>2705.7053</v>
       </c>
       <c r="J14" s="1">
-        <v>128221.6531</v>
+        <v>127707.2803</v>
       </c>
       <c r="K14" s="1">
-        <v>122039.923</v>
+        <v>122542.8567</v>
       </c>
       <c r="L14" s="1">
-        <v>10.3789</v>
+        <v>10.4008</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>125001.8077</v>
+        <v>125001.575</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.013</v>
+        <v>0.0128</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>11.2352</v>
       </c>
       <c r="C2" s="1">
-        <v>11.2352</v>
+        <v>11.2127</v>
       </c>
       <c r="D2" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>890.0519</v>
+        <v>888.2809</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>10.8241</v>
       </c>
       <c r="C3" s="1">
-        <v>10.8241</v>
+        <v>10.8024</v>
       </c>
       <c r="D3" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="E3" s="1">
-        <v>890.0519</v>
+        <v>888.2809</v>
       </c>
       <c r="F3" s="1">
-        <v>923.8643</v>
+        <v>922.0159</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>9634.010700000001</v>
+        <v>9595.565699999999</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9634.010700000001</v>
+        <v>9595.565699999999</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3081,7 +3081,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0366</v>
+        <v>-0.0404</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>11.2543</v>
       </c>
       <c r="C4" s="1">
-        <v>11.2543</v>
+        <v>11.2318</v>
       </c>
       <c r="D4" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="E4" s="1">
-        <v>1813.9162</v>
+        <v>1810.2968</v>
       </c>
       <c r="F4" s="1">
-        <v>878.4769</v>
+        <v>887.4897999999999</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>20414.3574</v>
+        <v>20332.8917</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20414.3574</v>
+        <v>20332.8917</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>11.0259</v>
+        <v>11.0479</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3131,10 +3131,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9886.642599999999</v>
+        <v>-10008.1341</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0397</v>
+        <v>0.0376</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,49 +3145,49 @@
         <v>10.5675</v>
       </c>
       <c r="C5" s="1">
-        <v>10.5675</v>
+        <v>10.5464</v>
       </c>
       <c r="D5" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="E5" s="1">
-        <v>2692.3931</v>
+        <v>2697.7866</v>
       </c>
       <c r="F5" s="1">
-        <v>957.0155</v>
+        <v>943.6348</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>28451.8644</v>
+        <v>28451.937</v>
       </c>
       <c r="I5" s="1">
-        <v>113.3574</v>
+        <v>-8.1341</v>
       </c>
       <c r="J5" s="1">
-        <v>28565.2218</v>
+        <v>28443.8029</v>
       </c>
       <c r="K5" s="1">
-        <v>29886.6426</v>
+        <v>30008.1341</v>
       </c>
       <c r="L5" s="1">
-        <v>11.1004</v>
+        <v>11.1232</v>
       </c>
       <c r="M5" s="1">
         <v>0.3</v>
       </c>
       <c r="N5" s="1">
-        <v>489.7574</v>
+        <v>488.7801</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9623.6</v>
+        <v>-9503.0857</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0608</v>
+        <v>-0.0623</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>9.967000000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>9.967000000000001</v>
+        <v>9.947100000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="E6" s="1">
-        <v>3649.4087</v>
+        <v>3641.4214</v>
       </c>
       <c r="F6" s="1">
-        <v>1052.4488</v>
+        <v>1050.2433</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>36373.6562</v>
+        <v>36221.5833</v>
       </c>
       <c r="I6" s="1">
-        <v>489.7574</v>
+        <v>488.7801</v>
       </c>
       <c r="J6" s="1">
-        <v>36863.4136</v>
+        <v>36710.3634</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.9607</v>
+        <v>10.9847</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10489.7574</v>
+        <v>-10488.7801</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0441</v>
+        <v>-0.0451</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>10.0064</v>
       </c>
       <c r="C7" s="1">
-        <v>10.0064</v>
+        <v>9.9864</v>
       </c>
       <c r="D7" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="E7" s="1">
-        <v>4701.8575</v>
+        <v>4691.6648</v>
       </c>
       <c r="F7" s="1">
-        <v>999.3604</v>
+        <v>997.357</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>47048.6668</v>
+        <v>46852.8411</v>
       </c>
       <c r="I7" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J7" s="1">
-        <v>47048.6668</v>
+        <v>46852.8411</v>
       </c>
       <c r="K7" s="1">
-        <v>50489.7574</v>
+        <v>50488.7801</v>
       </c>
       <c r="L7" s="1">
-        <v>10.7383</v>
+        <v>10.7614</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3293,7 +3293,7 @@
         <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.004</v>
+        <v>0.0031</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,49 +3304,49 @@
         <v>10.0129</v>
       </c>
       <c r="C8" s="1">
-        <v>10.0129</v>
+        <v>9.992900000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="E8" s="1">
-        <v>5701.2179</v>
+        <v>5689.0218</v>
       </c>
       <c r="F8" s="1">
-        <v>998.7117</v>
+        <v>996.7109</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>57085.7247</v>
+        <v>56849.8258</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>57085.7247</v>
+        <v>56849.8258</v>
       </c>
       <c r="K8" s="1">
-        <v>60489.7574</v>
+        <v>60488.7801</v>
       </c>
       <c r="L8" s="1">
-        <v>10.61</v>
+        <v>10.6325</v>
       </c>
       <c r="M8" s="1">
         <v>0.3</v>
       </c>
       <c r="N8" s="1">
-        <v>1269.5015</v>
+        <v>1266.7495</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8730.4985</v>
+        <v>-8733.2505</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0005999999999999999</v>
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>10.4583</v>
       </c>
       <c r="C9" s="1">
-        <v>10.4583</v>
+        <v>10.4374</v>
       </c>
       <c r="D9" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="E9" s="1">
-        <v>6699.9296</v>
+        <v>6685.7326</v>
       </c>
       <c r="F9" s="1">
-        <v>1077.5653</v>
+        <v>1075.1433</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>70069.87330000001</v>
+        <v>69781.6658</v>
       </c>
       <c r="I9" s="1">
-        <v>1269.5015</v>
+        <v>1266.7495</v>
       </c>
       <c r="J9" s="1">
-        <v>71339.37480000001</v>
+        <v>71048.41529999999</v>
       </c>
       <c r="K9" s="1">
-        <v>70489.7574</v>
+        <v>70488.7801</v>
       </c>
       <c r="L9" s="1">
-        <v>10.521</v>
+        <v>10.5432</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11269.5015</v>
+        <v>-11266.7495</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0634</v>
+        <v>0.06279999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>10.3341</v>
       </c>
       <c r="C10" s="1">
-        <v>10.3341</v>
+        <v>10.3134</v>
       </c>
       <c r="D10" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="E10" s="1">
-        <v>7777.4949</v>
+        <v>7760.876</v>
       </c>
       <c r="F10" s="1">
-        <v>967.6701</v>
+        <v>965.7357</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>80373.41</v>
+        <v>80041.01820000001</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>80373.41</v>
+        <v>80041.01820000001</v>
       </c>
       <c r="K10" s="1">
-        <v>81759.2589</v>
+        <v>81755.52959999999</v>
       </c>
       <c r="L10" s="1">
-        <v>10.5123</v>
+        <v>10.5343</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3452,7 +3452,7 @@
         <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0119</v>
+        <v>-0.0124</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,49 +3463,49 @@
         <v>9.884600000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>9.884600000000001</v>
+        <v>9.864800000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>8745.165000000001</v>
+        <v>8726.611699999999</v>
       </c>
       <c r="F11" s="1">
-        <v>1011.6747</v>
+        <v>1009.6523</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>86442.4583</v>
+        <v>86086.2787</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>86442.4583</v>
+        <v>86086.2787</v>
       </c>
       <c r="K11" s="1">
-        <v>91759.2589</v>
+        <v>91755.52959999999</v>
       </c>
       <c r="L11" s="1">
-        <v>10.4926</v>
+        <v>10.5145</v>
       </c>
       <c r="M11" s="1">
         <v>0.5</v>
       </c>
       <c r="N11" s="1">
-        <v>3499.8727</v>
+        <v>3492.3942</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-6500.1273</v>
+        <v>-6507.6058</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0435</v>
+        <v>-0.0439</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>9.967499999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>9.967499999999999</v>
+        <v>9.9476</v>
       </c>
       <c r="D12" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>9756.8398</v>
+        <v>9736.2639</v>
       </c>
       <c r="F12" s="1">
-        <v>1354.389</v>
+        <v>1350.9281</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>97251.3003</v>
+        <v>96852.45909999999</v>
       </c>
       <c r="I12" s="1">
-        <v>3499.8727</v>
+        <v>3492.3942</v>
       </c>
       <c r="J12" s="1">
-        <v>100751.173</v>
+        <v>100344.8533</v>
       </c>
       <c r="K12" s="1">
-        <v>101759.2589</v>
+        <v>101755.5296</v>
       </c>
       <c r="L12" s="1">
-        <v>10.4295</v>
+        <v>10.4512</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3555,10 +3555,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-13499.8727</v>
+        <v>-13492.3942</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0447</v>
+        <v>0.0443</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>10.4908</v>
       </c>
       <c r="C13" s="1">
-        <v>10.4908</v>
+        <v>10.4698</v>
       </c>
       <c r="D13" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="E13" s="1">
-        <v>11111.2288</v>
+        <v>11087.192</v>
       </c>
       <c r="F13" s="1">
-        <v>953.2162</v>
+        <v>951.3119</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>116565.679</v>
+        <v>116080.683</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>116565.679</v>
+        <v>116080.683</v>
       </c>
       <c r="K13" s="1">
-        <v>115259.1316</v>
+        <v>115247.9238</v>
       </c>
       <c r="L13" s="1">
-        <v>10.3732</v>
+        <v>10.3947</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3611,7 +3611,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0525</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +3622,34 @@
         <v>10.6308</v>
       </c>
       <c r="C14" s="1">
-        <v>10.6308</v>
+        <v>10.6095</v>
       </c>
       <c r="D14" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="E14" s="1">
-        <v>12064.4449</v>
+        <v>12038.5039</v>
       </c>
       <c r="F14" s="1">
-        <v>-12064.4449</v>
+        <v>-12038.5039</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>128254.7013</v>
+        <v>127722.5069</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>128254.7013</v>
+        <v>127722.5069</v>
       </c>
       <c r="K14" s="1">
-        <v>125259.1316</v>
+        <v>125247.9238</v>
       </c>
       <c r="L14" s="1">
-        <v>10.3825</v>
+        <v>10.4039</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>128254.7013</v>
+        <v>127722.5069</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0133</v>
+        <v>0.013</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>11.2352</v>
       </c>
       <c r="C2" s="1">
-        <v>11.2352</v>
+        <v>11.2127</v>
       </c>
       <c r="D2" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>890.0519</v>
+        <v>888.2809</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>10.8241</v>
       </c>
       <c r="C3" s="1">
-        <v>10.8241</v>
+        <v>10.8024</v>
       </c>
       <c r="D3" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="E3" s="1">
-        <v>890.0519</v>
+        <v>888.2809</v>
       </c>
       <c r="F3" s="1">
-        <v>923.8643</v>
+        <v>922.0159</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>9634.010700000001</v>
+        <v>9595.565699999999</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9634.010700000001</v>
+        <v>9595.565699999999</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3849,7 +3849,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0366</v>
+        <v>-0.0404</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>11.2543</v>
       </c>
       <c r="C4" s="1">
-        <v>11.2543</v>
+        <v>11.2318</v>
       </c>
       <c r="D4" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="E4" s="1">
-        <v>1813.9162</v>
+        <v>1810.2968</v>
       </c>
       <c r="F4" s="1">
-        <v>888.5493</v>
+        <v>886.7685</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20414.3574</v>
+        <v>20332.8917</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20414.3574</v>
+        <v>20332.8917</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>11.0259</v>
+        <v>11.0479</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3902,7 +3902,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0397</v>
+        <v>0.0376</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,49 +3913,49 @@
         <v>10.5675</v>
       </c>
       <c r="C5" s="1">
-        <v>10.5675</v>
+        <v>10.5464</v>
       </c>
       <c r="D5" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="E5" s="1">
-        <v>2702.4655</v>
+        <v>2697.0653</v>
       </c>
       <c r="F5" s="1">
-        <v>946.2886999999999</v>
+        <v>944.403</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>28558.3041</v>
+        <v>28444.3298</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>28558.3041</v>
+        <v>28444.3298</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>11.101</v>
+        <v>11.1232</v>
       </c>
       <c r="M5" s="1">
         <v>0.3</v>
       </c>
       <c r="N5" s="1">
-        <v>489.7574</v>
+        <v>488.7801</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9510.2426</v>
+        <v>-9511.2199</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.061</v>
+        <v>-0.0623</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>9.967000000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>9.967000000000001</v>
+        <v>9.947100000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="E6" s="1">
-        <v>3648.7542</v>
+        <v>3641.4683</v>
       </c>
       <c r="F6" s="1">
-        <v>1052.4488</v>
+        <v>1050.2433</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>36367.1326</v>
+        <v>36222.0496</v>
       </c>
       <c r="I6" s="1">
-        <v>489.7574</v>
+        <v>488.7801</v>
       </c>
       <c r="J6" s="1">
-        <v>36856.89</v>
+        <v>36710.8297</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.9626</v>
+        <v>10.9846</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4005,10 +4005,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10489.7574</v>
+        <v>-10488.7801</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0441</v>
+        <v>-0.0451</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>10.0064</v>
       </c>
       <c r="C7" s="1">
-        <v>10.0064</v>
+        <v>9.9864</v>
       </c>
       <c r="D7" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="E7" s="1">
-        <v>4701.203</v>
+        <v>4691.7117</v>
       </c>
       <c r="F7" s="1">
-        <v>999.3604</v>
+        <v>997.357</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>47042.1174</v>
+        <v>46853.3093</v>
       </c>
       <c r="I7" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J7" s="1">
-        <v>47042.1174</v>
+        <v>46853.3093</v>
       </c>
       <c r="K7" s="1">
-        <v>50489.7574</v>
+        <v>50488.7801</v>
       </c>
       <c r="L7" s="1">
-        <v>10.7398</v>
+        <v>10.7613</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4061,7 +4061,7 @@
         <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.004</v>
+        <v>0.0031</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,49 +4072,49 @@
         <v>10.0129</v>
       </c>
       <c r="C8" s="1">
-        <v>10.0129</v>
+        <v>9.992900000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="E8" s="1">
-        <v>5700.5634</v>
+        <v>5689.0687</v>
       </c>
       <c r="F8" s="1">
-        <v>998.7117</v>
+        <v>996.7109</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>57079.1711</v>
+        <v>56850.2942</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>57079.1711</v>
+        <v>56850.2942</v>
       </c>
       <c r="K8" s="1">
-        <v>60489.7574</v>
+        <v>60488.7801</v>
       </c>
       <c r="L8" s="1">
-        <v>10.6112</v>
+        <v>10.6325</v>
       </c>
       <c r="M8" s="1">
         <v>0.3</v>
       </c>
       <c r="N8" s="1">
-        <v>1269.3248</v>
+        <v>1266.7621</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8730.6752</v>
+        <v>-8733.2379</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0005999999999999999</v>
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>10.4583</v>
       </c>
       <c r="C9" s="1">
-        <v>10.4583</v>
+        <v>10.4374</v>
       </c>
       <c r="D9" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="E9" s="1">
-        <v>6699.275</v>
+        <v>6685.7795</v>
       </c>
       <c r="F9" s="1">
-        <v>1077.5484</v>
+        <v>1075.1445</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>70063.0282</v>
+        <v>69782.1551</v>
       </c>
       <c r="I9" s="1">
-        <v>1269.3248</v>
+        <v>1266.7621</v>
       </c>
       <c r="J9" s="1">
-        <v>71332.353</v>
+        <v>71048.9173</v>
       </c>
       <c r="K9" s="1">
-        <v>70489.7574</v>
+        <v>70488.7801</v>
       </c>
       <c r="L9" s="1">
-        <v>10.522</v>
+        <v>10.5431</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4164,10 +4164,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11269.3248</v>
+        <v>-11266.7621</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0634</v>
+        <v>0.06279999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>10.3341</v>
       </c>
       <c r="C10" s="1">
-        <v>10.3341</v>
+        <v>10.3134</v>
       </c>
       <c r="D10" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="E10" s="1">
-        <v>7776.8235</v>
+        <v>7760.9241</v>
       </c>
       <c r="F10" s="1">
-        <v>967.6701</v>
+        <v>965.7357</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>80366.4715</v>
+        <v>80041.5141</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>80366.4715</v>
+        <v>80041.5141</v>
       </c>
       <c r="K10" s="1">
-        <v>81759.0822</v>
+        <v>81755.5423</v>
       </c>
       <c r="L10" s="1">
-        <v>10.5132</v>
+        <v>10.5343</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4220,7 +4220,7 @@
         <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0119</v>
+        <v>-0.0124</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,49 +4231,49 @@
         <v>9.884600000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>9.884600000000001</v>
+        <v>9.864800000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>8744.4936</v>
+        <v>8726.659799999999</v>
       </c>
       <c r="F11" s="1">
-        <v>1011.6747</v>
+        <v>1009.6523</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>86435.8216</v>
+        <v>86086.7531</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>86435.8216</v>
+        <v>86086.7531</v>
       </c>
       <c r="K11" s="1">
-        <v>91759.0822</v>
+        <v>91755.5423</v>
       </c>
       <c r="L11" s="1">
-        <v>10.4934</v>
+        <v>10.5144</v>
       </c>
       <c r="M11" s="1">
         <v>0.5</v>
       </c>
       <c r="N11" s="1">
-        <v>3499.5706</v>
+        <v>3492.4158</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-6500.4294</v>
+        <v>-6507.5842</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0435</v>
+        <v>-0.0439</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>9.967499999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>9.967499999999999</v>
+        <v>9.9476</v>
       </c>
       <c r="D12" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>9756.168299999999</v>
+        <v>9736.312</v>
       </c>
       <c r="F12" s="1">
-        <v>1354.3587</v>
+        <v>1350.9302</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>97244.60799999999</v>
+        <v>96852.9375</v>
       </c>
       <c r="I12" s="1">
-        <v>3499.5706</v>
+        <v>3492.4158</v>
       </c>
       <c r="J12" s="1">
-        <v>100744.1785</v>
+        <v>100345.3533</v>
       </c>
       <c r="K12" s="1">
-        <v>101759.0822</v>
+        <v>101755.5423</v>
       </c>
       <c r="L12" s="1">
-        <v>10.4302</v>
+        <v>10.4511</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4323,10 +4323,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-13499.5706</v>
+        <v>-13492.4158</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0447</v>
+        <v>0.0443</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>10.4908</v>
       </c>
       <c r="C13" s="1">
-        <v>10.4908</v>
+        <v>10.4698</v>
       </c>
       <c r="D13" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="E13" s="1">
-        <v>11110.5271</v>
+        <v>11087.2423</v>
       </c>
       <c r="F13" s="1">
-        <v>953.2162</v>
+        <v>951.3119</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>116558.3174</v>
+        <v>116081.2091</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>116558.3174</v>
+        <v>116081.2091</v>
       </c>
       <c r="K13" s="1">
-        <v>115258.6527</v>
+        <v>115247.9581</v>
       </c>
       <c r="L13" s="1">
-        <v>10.3738</v>
+        <v>10.3946</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4379,7 +4379,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0525</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>10.6308</v>
       </c>
       <c r="C14" s="1">
-        <v>10.6308</v>
+        <v>10.6095</v>
       </c>
       <c r="D14" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="E14" s="1">
-        <v>12063.7432</v>
+        <v>12038.5541</v>
       </c>
       <c r="F14" s="1">
-        <v>-12063.7432</v>
+        <v>-12038.5541</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>128247.2414</v>
+        <v>127723.0401</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>128247.2414</v>
+        <v>127723.0401</v>
       </c>
       <c r="K14" s="1">
-        <v>125258.6527</v>
+        <v>125247.9581</v>
       </c>
       <c r="L14" s="1">
-        <v>10.3831</v>
+        <v>10.4039</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>128247.2414</v>
+        <v>127723.0401</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0133</v>
+        <v>0.013</v>
       </c>
     </row>
   </sheetData>
@@ -4450,9 +4450,9 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" customWidth="1"/>
   </cols>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>10.389</v>
+        <v>10.4098</v>
       </c>
       <c r="D3" s="1">
-        <v>10.3756</v>
+        <v>10.3972</v>
       </c>
       <c r="E3" s="1">
-        <v>10.3789</v>
+        <v>10.4008</v>
       </c>
       <c r="F3" s="1">
-        <v>10.3825</v>
+        <v>10.4039</v>
       </c>
       <c r="G3" s="1">
-        <v>10.3831</v>
+        <v>10.4039</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>-0.0468</v>
       </c>
       <c r="C4" s="3">
-        <v>0.0198</v>
+        <v>0.0073</v>
       </c>
       <c r="D4" s="3">
-        <v>0.0207</v>
+        <v>0.0083</v>
       </c>
       <c r="E4" s="3">
-        <v>0.0213</v>
+        <v>0.008699999999999999</v>
       </c>
       <c r="F4" s="3">
-        <v>0.0214</v>
+        <v>0.0086</v>
       </c>
       <c r="G4" s="3">
-        <v>0.0212</v>
+        <v>0.0086</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.1293</v>
       </c>
       <c r="C5" s="3">
-        <v>0.139</v>
+        <v>0.1399</v>
       </c>
       <c r="D5" s="3">
-        <v>0.139</v>
+        <v>0.1403</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1396</v>
+        <v>0.1407</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1397</v>
+        <v>0.1408</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1398</v>
+        <v>0.1408</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>-0.5187</v>
       </c>
       <c r="C6" s="4">
-        <v>-0.004</v>
+        <v>-0.09329999999999999</v>
       </c>
       <c r="D6" s="4">
-        <v>0.0028</v>
+        <v>-0.0854</v>
       </c>
       <c r="E6" s="4">
-        <v>0.0073</v>
+        <v>-0.08260000000000001</v>
       </c>
       <c r="F6" s="4">
-        <v>0.0075</v>
+        <v>-0.0833</v>
       </c>
       <c r="G6" s="4">
-        <v>0.0059</v>
+        <v>-0.0832</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.1289</v>
+        <v>0.1204</v>
       </c>
       <c r="D7" s="3">
-        <v>0.1297</v>
+        <v>0.1216</v>
       </c>
       <c r="E7" s="3">
-        <v>0.1303</v>
+        <v>0.1219</v>
       </c>
       <c r="F7" s="3">
-        <v>0.1303</v>
+        <v>0.1217</v>
       </c>
       <c r="G7" s="3">
-        <v>0.1302</v>
+        <v>0.1218</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>5192.0414</v>
+        <v>5181.614</v>
       </c>
       <c r="D8" s="1">
-        <v>5201.9702</v>
+        <v>5205.1347</v>
       </c>
       <c r="E8" s="1">
-        <v>5259.7684</v>
+        <v>5248.562</v>
       </c>
       <c r="F8" s="1">
-        <v>5259.1316</v>
+        <v>5247.9238</v>
       </c>
       <c r="G8" s="1">
-        <v>5258.6527</v>
+        <v>5247.9581</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P78_KFSDIV.xlsx
+++ b/output/1Y_P78_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>6220.3559</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.0193</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.0796</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.0507</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.0218</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.02</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
